--- a/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\elec\CRbQ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/elec/crbq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AD38C1-F330-456A-932F-C511B2D6FEAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA5DC5-70CD-DF49-B368-ABACDB46E681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="1515" windowWidth="24540" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="860" windowWidth="24540" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
@@ -337,7 +337,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -347,6 +347,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Body: normal cell" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -641,22 +642,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="7">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -664,78 +668,78 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -755,13 +759,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
-    <col min="2" max="23" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="23" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>32</v>
       </c>
@@ -862,7 +866,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -964,7 +968,7 @@
       </c>
       <c r="AI2" s="1"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1066,7 +1070,7 @@
       </c>
       <c r="AI3" s="1"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1172,7 @@
       </c>
       <c r="AI4" s="1"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1270,7 +1274,7 @@
       </c>
       <c r="AI5" s="1"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1372,7 +1376,7 @@
       </c>
       <c r="AI6" s="1"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1478,7 @@
       </c>
       <c r="AI7" s="1"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1576,7 +1580,7 @@
       </c>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +1682,7 @@
       </c>
       <c r="AI9" s="1"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -1780,7 +1784,7 @@
       </c>
       <c r="AI10" s="1"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1882,7 +1886,7 @@
       </c>
       <c r="AI11" s="1"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1984,7 +1988,7 @@
       </c>
       <c r="AI12" s="1"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -2086,7 +2090,7 @@
       </c>
       <c r="AI13" s="1"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -2188,7 +2192,7 @@
       </c>
       <c r="AI14" s="1"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
@@ -2289,7 +2293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
@@ -2390,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>

--- a/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
+++ b/InputData/elec/CRbQ/Cap Retirements before Quantization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/wa/elec/crbq/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/crbq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FA5DC5-70CD-DF49-B368-ABACDB46E681}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE6FA72-1FB7-3741-AC87-1BBF71D80604}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="860" windowWidth="24540" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4060" yWindow="1260" windowWidth="24540" windowHeight="15400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="14" r:id="rId1"/>
